--- a/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
+++ b/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
@@ -1,37 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\bldgs\CpUDSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\Input Data for India 2.0\bldgs\CpUDSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4BB31E-CBED-47E7-9096-66AAA17BC066}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="India Data" sheetId="6" r:id="rId2"/>
-    <sheet name="AC DC Derate Factor" sheetId="5" r:id="rId3"/>
-    <sheet name="CpUDSC" sheetId="2" r:id="rId4"/>
+    <sheet name="India Data" sheetId="7" r:id="rId2"/>
+    <sheet name="India Calcs" sheetId="6" r:id="rId3"/>
+    <sheet name="AC DC Derate Factor" sheetId="5" r:id="rId4"/>
+    <sheet name="CpUDSC" sheetId="2" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="INRLac">[1]Conversions!$E$113</definedName>
-    <definedName name="plantsize.iv.a">'India Data'!$E$99</definedName>
+    <definedName name="plantsize.iv.a">'India Calcs'!$E$100</definedName>
     <definedName name="Preferences.PowerUnits">[1]Preferences!$C$5</definedName>
     <definedName name="Unit.kW">[1]Conversions!$F$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>CpUDSC Cost per Unit Distributed Solar Capacity</t>
   </si>
@@ -66,9 +76,6 @@
     <t>Jens Schoene, EnerNex</t>
   </si>
   <si>
-    <t>This document is included as Appendix B of a report by Brattle Group.  It is on Page 10 of the EnerNex report, which is Page 70 of the PDF</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -87,9 +94,6 @@
     <t>Trillion INR</t>
   </si>
   <si>
-    <t>Taking point estimate, converting to Ruppees/MW</t>
-  </si>
-  <si>
     <t>India Inflation Rates</t>
   </si>
   <si>
@@ -99,9 +103,6 @@
     <t>Value Indexed to 2012</t>
   </si>
   <si>
-    <t>Ruppees per dollar</t>
-  </si>
-  <si>
     <t>Cap Cost (2012USD/MW)</t>
   </si>
   <si>
@@ -114,9 +115,6 @@
     <t>Cap Cost (INR/MW AC)</t>
   </si>
   <si>
-    <t>Prices (DC)</t>
-  </si>
-  <si>
     <t>NITI Aayog, Government of India</t>
   </si>
   <si>
@@ -145,20 +143,146 @@
   </si>
   <si>
     <t>appropriate derate factor.</t>
+  </si>
+  <si>
+    <t>Since IESS was developed in 2015-16 and PV module costs have declined</t>
+  </si>
+  <si>
+    <t>We use scaling factors from IESS's level 2 trajectory to project future costs.</t>
+  </si>
+  <si>
+    <t>10-100 kW</t>
+  </si>
+  <si>
+    <t>100-500 kW</t>
+  </si>
+  <si>
+    <t>commercial, and industrial scales. We take an average of residential and</t>
+  </si>
+  <si>
+    <t>commercial scales for the buildings sector.</t>
+  </si>
+  <si>
+    <t>1-10 kW</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>INR/kW</t>
+  </si>
+  <si>
+    <t>Source: MNRE, 2019</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>INR/MW</t>
+  </si>
+  <si>
+    <t>O&amp;M costs are estimated from a representative tariff order from a</t>
+  </si>
+  <si>
+    <t>Benchmark costs for Grid Connected Rooftop Solar Power Plants for the Year 2019- 20</t>
+  </si>
+  <si>
+    <t>O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Source: KERC, 2019</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>5yr decline rate</t>
+  </si>
+  <si>
+    <t>Yearly decline rate</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>Rupees per dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Scaling </t>
+  </si>
+  <si>
+    <t>Ministry of New &amp; Renewable Energy</t>
+  </si>
+  <si>
+    <t>https://mnre.gov.in/sites/default/files/uploads/benchmark%20cost%202019-20%20%281%29.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This document is included as Appendix B of a report by Brattle Group. </t>
+  </si>
+  <si>
+    <t>Karnataka Electricity Regulatory Commission</t>
+  </si>
+  <si>
+    <t>Generic Tariff Order for Solar PV Plants (Ground Mounted &amp; Solar Rooftop PV) for FY19</t>
+  </si>
+  <si>
+    <t>https://bescom.org/wp-content/uploads/2018/06/OMNew-SRTPV-tariff-for-entering-into-PPAs-from-01.04.2018-to-31.03.2019.pdf</t>
+  </si>
+  <si>
+    <t>Table 2(b), Page 22</t>
+  </si>
+  <si>
+    <t>Page 10 of the EnerNex report (Page 70 of the PDF)</t>
+  </si>
+  <si>
+    <t>state electricity regulator. They are not included in the cost calculation but</t>
+  </si>
+  <si>
+    <t>(2019 value is a current average, as Dec. vs. Dec Inflation rate is not available at the time of data updation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benchmark Capital Costs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O&amp;M Costs </t>
+  </si>
+  <si>
+    <t>substantially since then, we estimate the base year cost from the most</t>
+  </si>
+  <si>
+    <t>recent benchmark costs from MNRE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benchmark (capital) costs are available for systems ranging residential, </t>
+  </si>
+  <si>
+    <t>available here for future reference.</t>
+  </si>
+  <si>
+    <t>Capital (Installation) Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
     <numFmt numFmtId="167" formatCode="#,##0.000000_);\(#,##0.000000\);&quot;-&quot;_);@"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000_);\(#,##0.0000\);&quot;-&quot;_);@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +359,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +387,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -377,6 +515,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -413,9 +566,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -509,24 +662,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Body: normal cell" xfId="1"/>
+    <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="13" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: all except top row" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: top rows" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header: top rows" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="7"/>
+    <cellStyle name="Hyperlink 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="8"/>
-    <cellStyle name="Section Break" xfId="9"/>
-    <cellStyle name="Section Break: parent row" xfId="10"/>
-    <cellStyle name="Table title" xfId="11"/>
+    <cellStyle name="Parent row" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Section Break" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="10" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Table title" xfId="11" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,6 +924,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -802,6 +976,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -977,112 +1168,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2015</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2015</v>
       </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1090,21 +1370,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E38500-76EA-4C64-BE85-14C24F8020D2}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>54000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C4:C5)</f>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="40">
+        <f>C7*1000</f>
+        <v>51000000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="40">
+        <f>C11*1000</f>
+        <v>600000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <f>C8+C12</f>
+        <v>51600000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -1131,14 +1545,14 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="23">
         <v>2007</v>
@@ -1170,7 +1584,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="25"/>
@@ -1202,7 +1616,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="27">
@@ -1236,7 +1650,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
@@ -1266,14 +1680,78 @@
         <v>9.9999999999999991E-6</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="33">
+        <f>(F5-E5)/E5</f>
+        <v>-9.9999999999999895E-2</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7:L7" si="0">(G5-F5)/F5</f>
+        <v>-5.3333333333333385E-2</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="0"/>
+        <v>-2.8920187793427216E-2</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.9785824792109819E-2</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.533927668651895E-2</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.1214075511865236E-2</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="0"/>
+        <v>-7.3328731818212622E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="41">
+        <f>F7/5</f>
+        <v>-1.999999999999998E-2</v>
+      </c>
+      <c r="G8" s="41">
+        <f t="shared" ref="G8:L8" si="1">G7/5</f>
+        <v>-1.0666666666666677E-2</v>
+      </c>
+      <c r="H8" s="41">
+        <f t="shared" si="1"/>
+        <v>-5.7840375586854431E-3</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.9571649584219642E-3</v>
+      </c>
+      <c r="J8" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.0678553373037899E-3</v>
+      </c>
+      <c r="K8" s="41">
+        <f t="shared" si="1"/>
+        <v>-2.2428151023730471E-3</v>
+      </c>
+      <c r="L8" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.4665746363642525E-3</v>
+      </c>
+    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2017</v>
+      <c r="B11" t="s">
+        <v>56</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1296,68 +1774,68 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="33">
-        <f>F5*10*10^12</f>
-        <v>90000000</v>
+        <f>'India Data'!C8</f>
+        <v>51000000</v>
       </c>
       <c r="C12" s="33">
-        <f t="shared" ref="C12:H12" si="0">G5*10*10^12</f>
-        <v>85200000</v>
+        <f>B12*(1+3*G8)</f>
+        <v>49368000</v>
       </c>
       <c r="D12" s="33">
-        <f t="shared" si="0"/>
-        <v>82736000</v>
+        <f>C12*(1+H7)</f>
+        <v>47940268.169014089</v>
       </c>
       <c r="E12" s="33">
-        <f t="shared" si="0"/>
-        <v>81099000</v>
+        <f>D12*(1+I7)</f>
+        <v>46991730.422535218</v>
       </c>
       <c r="F12" s="33">
-        <f t="shared" si="0"/>
-        <v>79855000</v>
+        <f>E12*(1+J7)</f>
+        <v>46270911.26760564</v>
       </c>
       <c r="G12" s="33">
-        <f t="shared" si="0"/>
-        <v>78959500.000000015</v>
+        <f>F12*(1+K7)</f>
+        <v>45752025.774647892</v>
       </c>
       <c r="H12" s="33">
-        <f t="shared" si="0"/>
-        <v>78380499.999999985</v>
+        <f>G12*(1+L7)</f>
+        <v>45416531.971830979</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="33">
         <f>B12/'AC DC Derate Factor'!$A$3</f>
-        <v>104772991.85098952</v>
+        <v>59371362.048894063</v>
       </c>
       <c r="C13" s="33">
         <f>C12/'AC DC Derate Factor'!$A$3</f>
-        <v>99185098.952270091</v>
+        <v>57471478.463329457</v>
       </c>
       <c r="D13" s="33">
         <f>D12/'AC DC Derate Factor'!$A$3</f>
-        <v>96316647.264260769</v>
+        <v>55809392.513404064</v>
       </c>
       <c r="E13" s="33">
         <f>E12/'AC DC Derate Factor'!$A$3</f>
-        <v>94410942.956926659</v>
+        <v>54705157.651379764</v>
       </c>
       <c r="F13" s="33">
         <f>F12/'AC DC Derate Factor'!$A$3</f>
-        <v>92962747.380675212</v>
+        <v>53866020.101985611</v>
       </c>
       <c r="G13" s="33">
         <f>G12/'AC DC Derate Factor'!$A$3</f>
-        <v>91920256.111757874</v>
+        <v>53261962.485038288</v>
       </c>
       <c r="H13" s="33">
         <f>H12/'AC DC Derate Factor'!$A$3</f>
-        <v>91246216.530849814</v>
+        <v>52871399.268720582</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1382,30 +1860,30 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="34"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -1417,7 +1895,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -1429,7 +1907,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -1440,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -1452,7 +1930,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -1460,11 +1938,12 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="C23" s="37">
-        <f t="shared" ref="C23:C26" si="1">C22*(1+B23)</f>
+        <f t="shared" ref="C23:C28" si="2">C22*(1+B23)</f>
         <v>1.1552501799999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -1472,11 +1951,11 @@
         <v>6.3200000000000006E-2</v>
       </c>
       <c r="C24" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -1484,11 +1963,11 @@
         <v>2.23E-2</v>
       </c>
       <c r="C25" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2017</v>
       </c>
@@ -1496,515 +1975,567 @@
         <v>0.04</v>
       </c>
       <c r="C26" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="36">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="C27" s="37">
+        <f t="shared" si="2"/>
+        <v>1.3743063472673078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="36">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="C28" s="37">
+        <f t="shared" si="2"/>
+        <v>1.4755927250609084</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2010</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>44.81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2011</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>53.26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2012</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>54.77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2013</v>
-      </c>
-      <c r="B32">
-        <v>61.89</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B33">
-        <v>63.33</v>
+        <v>61.89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B34">
-        <v>66.319999999999993</v>
+        <v>63.33</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B35">
-        <v>67.95</v>
+        <v>66.319999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="B36">
+        <v>67.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2017</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>63.92</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="42">
+        <v>68.657300000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>2017</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>2022</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>2027</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>2032</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>2037</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>2042</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>2047</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="33">
-        <f>B13/$C26/$B31</f>
-        <v>1464886.2136701553</v>
-      </c>
-      <c r="C39" s="33">
-        <f t="shared" ref="C39:H39" si="2">C13/$C26/$B31</f>
-        <v>1386758.9489410806</v>
-      </c>
-      <c r="D39" s="33">
-        <f t="shared" si="2"/>
-        <v>1346653.6197134887</v>
-      </c>
-      <c r="E39" s="33">
-        <f t="shared" si="2"/>
-        <v>1320008.967138177</v>
-      </c>
-      <c r="F39" s="33">
-        <f t="shared" si="2"/>
-        <v>1299760.9843625587</v>
-      </c>
-      <c r="G39" s="33">
-        <f t="shared" si="2"/>
-        <v>1285185.3665365407</v>
-      </c>
-      <c r="H39" s="33">
-        <f t="shared" si="2"/>
-        <v>1275761.2652285956</v>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="33">
+        <f>B13/$C$28/$B$32</f>
+        <v>734628.48830477486</v>
+      </c>
+      <c r="C40" s="33">
+        <f t="shared" ref="C40:H40" si="3">C13/$C$28/$B$32</f>
+        <v>711120.3766790221</v>
+      </c>
+      <c r="D40" s="33">
+        <f t="shared" si="3"/>
+        <v>690554.6418417322</v>
+      </c>
+      <c r="E40" s="33">
+        <f t="shared" si="3"/>
+        <v>676891.44868887344</v>
+      </c>
+      <c r="F40" s="33">
+        <f t="shared" si="3"/>
+        <v>666508.4234706962</v>
+      </c>
+      <c r="G40" s="33">
+        <f t="shared" si="3"/>
+        <v>659034.14768060157</v>
+      </c>
+      <c r="H40" s="33">
+        <f t="shared" si="3"/>
+        <v>654201.53385317</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2017</v>
-      </c>
-      <c r="B43" s="33">
-        <f>B39</f>
-        <v>1464886.2136701553</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B44" s="33">
-        <f>C39</f>
-        <v>1386758.9489410806</v>
+        <f>B40</f>
+        <v>734628.48830477486</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B45" s="33">
-        <f>D39</f>
-        <v>1346653.6197134887</v>
+        <f>C40</f>
+        <v>711120.3766790221</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B46" s="33">
-        <f>E39</f>
-        <v>1320008.967138177</v>
+        <f>D40</f>
+        <v>690554.6418417322</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B47" s="33">
-        <f>F39</f>
-        <v>1299760.9843625587</v>
+        <f>E40</f>
+        <v>676891.44868887344</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B48" s="33">
-        <f>G39</f>
-        <v>1285185.3665365407</v>
+        <f>F40</f>
+        <v>666508.4234706962</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>2042</v>
+      </c>
+      <c r="B49" s="33">
+        <f>G40</f>
+        <v>659034.14768060157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>2047</v>
       </c>
-      <c r="B49" s="33">
-        <f>H39</f>
-        <v>1275761.2652285956</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>33</v>
+      <c r="B50" s="33">
+        <f>H40</f>
+        <v>654201.53385317</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2017</v>
-      </c>
-      <c r="B53" s="33">
-        <f>TREND(B$43:B$44,$A$43:$A$44,$A53)</f>
-        <v>1464886.2136701569</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B54" s="33">
-        <f t="shared" ref="B54:B59" si="3">TREND(B$43:B$44,$A$43:$A$44,$A54)</f>
-        <v>1449260.7607243396</v>
+        <f>TREND(B$44:B$45,$A$44:$A$45,$A54)</f>
+        <v>734628.48830477521</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B55" s="33">
-        <f t="shared" si="3"/>
-        <v>1433635.3077785261</v>
+        <f t="shared" ref="B55:B59" si="4">TREND(B$44:B$45,$A$44:$A$45,$A55)</f>
+        <v>729926.86597962491</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B56" s="33">
-        <f t="shared" si="3"/>
-        <v>1418009.8548327088</v>
+        <f t="shared" si="4"/>
+        <v>725225.24365447462</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B57" s="33">
-        <f t="shared" si="3"/>
-        <v>1402384.4018868953</v>
+        <f t="shared" si="4"/>
+        <v>720523.62132932432</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B58" s="33">
-        <f t="shared" si="3"/>
-        <v>1386758.9489410818</v>
+        <f t="shared" si="4"/>
+        <v>715821.99900417402</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B59" s="33">
-        <f>TREND(B$44:B$45,$A$44:$A$45,$A59)</f>
-        <v>1378737.8830955625</v>
+        <f t="shared" si="4"/>
+        <v>711120.37667902373</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B60" s="33">
-        <f t="shared" ref="B60:B64" si="4">TREND(B$44:B$45,$A$44:$A$45,$A60)</f>
-        <v>1370716.817250045</v>
+        <f>TREND(B$45:B$46,$A$45:$A$46,$A60)</f>
+        <v>707007.22971156426</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B61" s="33">
-        <f t="shared" si="4"/>
-        <v>1362695.7514045257</v>
+        <f t="shared" ref="B61:B64" si="5">TREND(B$45:B$46,$A$45:$A$46,$A61)</f>
+        <v>702894.08274410665</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B62" s="33">
-        <f t="shared" si="4"/>
-        <v>1354674.6855590083</v>
+        <f t="shared" si="5"/>
+        <v>698780.93577664811</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B63" s="33">
-        <f t="shared" si="4"/>
-        <v>1346653.619713489</v>
+        <f t="shared" si="5"/>
+        <v>694667.7888091905</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B64" s="33">
-        <f>TREND(B$45:B$46,$A$45:$A$46,$A64)</f>
-        <v>1341324.689198425</v>
+        <f t="shared" si="5"/>
+        <v>690554.64184173197</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B65" s="33">
-        <f t="shared" ref="B65:B69" si="5">TREND(B$45:B$46,$A$45:$A$46,$A65)</f>
-        <v>1335995.758683363</v>
+        <f>TREND(B$46:B$47,$A$46:$A$47,$A65)</f>
+        <v>687822.00321116019</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B66" s="33">
-        <f t="shared" si="5"/>
-        <v>1330666.8281683009</v>
+        <f t="shared" ref="B66:B69" si="6">TREND(B$46:B$47,$A$46:$A$47,$A66)</f>
+        <v>685089.36458058842</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B67" s="33">
-        <f t="shared" si="5"/>
-        <v>1325337.8976532388</v>
+        <f t="shared" si="6"/>
+        <v>682356.72595001757</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B68" s="33">
-        <f t="shared" si="5"/>
-        <v>1320008.9671381749</v>
+        <f t="shared" si="6"/>
+        <v>679624.0873194458</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B69" s="33">
-        <f>TREND(B$46:B$47,$A$46:$A$47,$A69)</f>
-        <v>1315959.3705830527</v>
+        <f t="shared" si="6"/>
+        <v>676891.44868887402</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B70" s="33">
-        <f t="shared" ref="B70:B74" si="6">TREND(B$46:B$47,$A$46:$A$47,$A70)</f>
-        <v>1311909.7740279287</v>
+        <f>TREND(B$47:B$48,$A$47:$A$48,$A70)</f>
+        <v>674814.84364523832</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B71" s="33">
-        <f t="shared" si="6"/>
-        <v>1307860.1774728056</v>
+        <f t="shared" ref="B71:B74" si="7">TREND(B$47:B$48,$A$47:$A$48,$A71)</f>
+        <v>672738.23860160261</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B72" s="33">
-        <f t="shared" si="6"/>
-        <v>1303810.5809176816</v>
+        <f t="shared" si="7"/>
+        <v>670661.63355796691</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B73" s="33">
-        <f t="shared" si="6"/>
-        <v>1299760.9843625585</v>
+        <f t="shared" si="7"/>
+        <v>668585.02851433214</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B74" s="33">
-        <f>TREND(B$47:B$48,$A$47:$A$48,$A74)</f>
-        <v>1296845.860797355</v>
+        <f t="shared" si="7"/>
+        <v>666508.42347069643</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B75" s="33">
-        <f t="shared" ref="B75:B79" si="7">TREND(B$47:B$48,$A$47:$A$48,$A75)</f>
-        <v>1293930.7372321514</v>
+        <f>TREND(B$48:B$49,$A$48:$A$49,$A75)</f>
+        <v>665013.56831267709</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B76" s="33">
-        <f t="shared" si="7"/>
-        <v>1291015.6136669479</v>
+        <f t="shared" ref="B76:B79" si="8">TREND(B$48:B$49,$A$48:$A$49,$A76)</f>
+        <v>663518.71315465821</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B77" s="33">
-        <f t="shared" si="7"/>
-        <v>1288100.4901017444</v>
+        <f t="shared" si="8"/>
+        <v>662023.85799663933</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B78" s="33">
-        <f t="shared" si="7"/>
-        <v>1285185.3665365409</v>
+        <f t="shared" si="8"/>
+        <v>660529.00283862045</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B79" s="33">
-        <f>TREND(B$48:B$49,$A$48:$A$49,$A79)</f>
-        <v>1283300.5462749517</v>
+        <f t="shared" si="8"/>
+        <v>659034.14768060157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B80" s="33">
-        <f t="shared" ref="B80:B86" si="8">TREND(B$48:B$49,$A$48:$A$49,$A80)</f>
-        <v>1281415.7260133629</v>
+        <f>TREND(B$49:B$50,$A$49:$A$50,$A80)</f>
+        <v>658067.6249151153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B81" s="33">
-        <f t="shared" si="8"/>
-        <v>1279530.9057517736</v>
+        <f t="shared" ref="B81:B87" si="9">TREND(B$49:B$50,$A$49:$A$50,$A81)</f>
+        <v>657101.10214962903</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B82" s="33">
-        <f t="shared" si="8"/>
-        <v>1277646.0854901848</v>
+        <f t="shared" si="9"/>
+        <v>656134.57938414277</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B83" s="33">
-        <f t="shared" si="8"/>
-        <v>1275761.2652285956</v>
+        <f t="shared" si="9"/>
+        <v>655168.05661865626</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B84" s="33">
-        <f t="shared" si="8"/>
-        <v>1273876.4449670068</v>
+        <f t="shared" si="9"/>
+        <v>654201.53385317</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B85" s="33">
-        <f t="shared" si="8"/>
-        <v>1271991.624705418</v>
+        <f t="shared" si="9"/>
+        <v>653235.01108768373</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>2049</v>
+      </c>
+      <c r="B86" s="33">
+        <f t="shared" si="9"/>
+        <v>652268.48832219746</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>2050</v>
       </c>
-      <c r="B86" s="33">
-        <f t="shared" si="8"/>
-        <v>1270106.8044438288</v>
+      <c r="B87" s="33">
+        <f t="shared" si="9"/>
+        <v>651301.96555671119</v>
       </c>
     </row>
   </sheetData>
@@ -2012,8 +2543,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2044,14 +2575,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2068,8 +2601,8 @@
         <v>2017</v>
       </c>
       <c r="B2" s="7">
-        <f>'India Data'!B53</f>
-        <v>1464886.2136701569</v>
+        <f>'India Calcs'!B54</f>
+        <v>734628.48830477521</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,8 +2610,8 @@
         <v>2018</v>
       </c>
       <c r="B3" s="7">
-        <f>'India Data'!B54</f>
-        <v>1449260.7607243396</v>
+        <f>'India Calcs'!B55</f>
+        <v>729926.86597962491</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,8 +2619,8 @@
         <v>2019</v>
       </c>
       <c r="B4" s="7">
-        <f>'India Data'!B55</f>
-        <v>1433635.3077785261</v>
+        <f>'India Calcs'!B56</f>
+        <v>725225.24365447462</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,8 +2628,8 @@
         <v>2020</v>
       </c>
       <c r="B5" s="7">
-        <f>'India Data'!B56</f>
-        <v>1418009.8548327088</v>
+        <f>'India Calcs'!B57</f>
+        <v>720523.62132932432</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,8 +2637,8 @@
         <v>2021</v>
       </c>
       <c r="B6" s="7">
-        <f>'India Data'!B57</f>
-        <v>1402384.4018868953</v>
+        <f>'India Calcs'!B58</f>
+        <v>715821.99900417402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,8 +2646,8 @@
         <v>2022</v>
       </c>
       <c r="B7" s="7">
-        <f>'India Data'!B58</f>
-        <v>1386758.9489410818</v>
+        <f>'India Calcs'!B59</f>
+        <v>711120.37667902373</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,8 +2655,8 @@
         <v>2023</v>
       </c>
       <c r="B8" s="7">
-        <f>'India Data'!B59</f>
-        <v>1378737.8830955625</v>
+        <f>'India Calcs'!B60</f>
+        <v>707007.22971156426</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,8 +2664,8 @@
         <v>2024</v>
       </c>
       <c r="B9" s="7">
-        <f>'India Data'!B60</f>
-        <v>1370716.817250045</v>
+        <f>'India Calcs'!B61</f>
+        <v>702894.08274410665</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,8 +2673,8 @@
         <v>2025</v>
       </c>
       <c r="B10" s="7">
-        <f>'India Data'!B61</f>
-        <v>1362695.7514045257</v>
+        <f>'India Calcs'!B62</f>
+        <v>698780.93577664811</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,8 +2682,8 @@
         <v>2026</v>
       </c>
       <c r="B11" s="7">
-        <f>'India Data'!B62</f>
-        <v>1354674.6855590083</v>
+        <f>'India Calcs'!B63</f>
+        <v>694667.7888091905</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,8 +2691,8 @@
         <v>2027</v>
       </c>
       <c r="B12" s="7">
-        <f>'India Data'!B63</f>
-        <v>1346653.619713489</v>
+        <f>'India Calcs'!B64</f>
+        <v>690554.64184173197</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,8 +2700,8 @@
         <v>2028</v>
       </c>
       <c r="B13" s="7">
-        <f>'India Data'!B64</f>
-        <v>1341324.689198425</v>
+        <f>'India Calcs'!B65</f>
+        <v>687822.00321116019</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,8 +2709,8 @@
         <v>2029</v>
       </c>
       <c r="B14" s="7">
-        <f>'India Data'!B65</f>
-        <v>1335995.758683363</v>
+        <f>'India Calcs'!B66</f>
+        <v>685089.36458058842</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,8 +2718,8 @@
         <v>2030</v>
       </c>
       <c r="B15" s="7">
-        <f>'India Data'!B66</f>
-        <v>1330666.8281683009</v>
+        <f>'India Calcs'!B67</f>
+        <v>682356.72595001757</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,8 +2727,8 @@
         <v>2031</v>
       </c>
       <c r="B16" s="7">
-        <f>'India Data'!B67</f>
-        <v>1325337.8976532388</v>
+        <f>'India Calcs'!B68</f>
+        <v>679624.0873194458</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,8 +2736,8 @@
         <v>2032</v>
       </c>
       <c r="B17" s="7">
-        <f>'India Data'!B68</f>
-        <v>1320008.9671381749</v>
+        <f>'India Calcs'!B69</f>
+        <v>676891.44868887402</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,8 +2745,8 @@
         <v>2033</v>
       </c>
       <c r="B18" s="7">
-        <f>'India Data'!B69</f>
-        <v>1315959.3705830527</v>
+        <f>'India Calcs'!B70</f>
+        <v>674814.84364523832</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,8 +2754,8 @@
         <v>2034</v>
       </c>
       <c r="B19" s="7">
-        <f>'India Data'!B70</f>
-        <v>1311909.7740279287</v>
+        <f>'India Calcs'!B71</f>
+        <v>672738.23860160261</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,8 +2763,8 @@
         <v>2035</v>
       </c>
       <c r="B20" s="7">
-        <f>'India Data'!B71</f>
-        <v>1307860.1774728056</v>
+        <f>'India Calcs'!B72</f>
+        <v>670661.63355796691</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,8 +2772,8 @@
         <v>2036</v>
       </c>
       <c r="B21" s="7">
-        <f>'India Data'!B72</f>
-        <v>1303810.5809176816</v>
+        <f>'India Calcs'!B73</f>
+        <v>668585.02851433214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,8 +2781,8 @@
         <v>2037</v>
       </c>
       <c r="B22" s="7">
-        <f>'India Data'!B73</f>
-        <v>1299760.9843625585</v>
+        <f>'India Calcs'!B74</f>
+        <v>666508.42347069643</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,8 +2790,8 @@
         <v>2038</v>
       </c>
       <c r="B23" s="7">
-        <f>'India Data'!B74</f>
-        <v>1296845.860797355</v>
+        <f>'India Calcs'!B75</f>
+        <v>665013.56831267709</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2266,8 +2799,8 @@
         <v>2039</v>
       </c>
       <c r="B24" s="7">
-        <f>'India Data'!B75</f>
-        <v>1293930.7372321514</v>
+        <f>'India Calcs'!B76</f>
+        <v>663518.71315465821</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,8 +2808,8 @@
         <v>2040</v>
       </c>
       <c r="B25" s="7">
-        <f>'India Data'!B76</f>
-        <v>1291015.6136669479</v>
+        <f>'India Calcs'!B77</f>
+        <v>662023.85799663933</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,8 +2817,8 @@
         <v>2041</v>
       </c>
       <c r="B26" s="7">
-        <f>'India Data'!B77</f>
-        <v>1288100.4901017444</v>
+        <f>'India Calcs'!B78</f>
+        <v>660529.00283862045</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,8 +2826,8 @@
         <v>2042</v>
       </c>
       <c r="B27" s="7">
-        <f>'India Data'!B78</f>
-        <v>1285185.3665365409</v>
+        <f>'India Calcs'!B79</f>
+        <v>659034.14768060157</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,8 +2835,8 @@
         <v>2043</v>
       </c>
       <c r="B28" s="7">
-        <f>'India Data'!B79</f>
-        <v>1283300.5462749517</v>
+        <f>'India Calcs'!B80</f>
+        <v>658067.6249151153</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,8 +2844,8 @@
         <v>2044</v>
       </c>
       <c r="B29" s="7">
-        <f>'India Data'!B80</f>
-        <v>1281415.7260133629</v>
+        <f>'India Calcs'!B81</f>
+        <v>657101.10214962903</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,8 +2853,8 @@
         <v>2045</v>
       </c>
       <c r="B30" s="7">
-        <f>'India Data'!B81</f>
-        <v>1279530.9057517736</v>
+        <f>'India Calcs'!B82</f>
+        <v>656134.57938414277</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,8 +2862,8 @@
         <v>2046</v>
       </c>
       <c r="B31" s="7">
-        <f>'India Data'!B82</f>
-        <v>1277646.0854901848</v>
+        <f>'India Calcs'!B83</f>
+        <v>655168.05661865626</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2338,8 +2871,8 @@
         <v>2047</v>
       </c>
       <c r="B32" s="7">
-        <f>'India Data'!B83</f>
-        <v>1275761.2652285956</v>
+        <f>'India Calcs'!B84</f>
+        <v>654201.53385317</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2347,8 +2880,8 @@
         <v>2048</v>
       </c>
       <c r="B33" s="7">
-        <f>'India Data'!B84</f>
-        <v>1273876.4449670068</v>
+        <f>'India Calcs'!B85</f>
+        <v>653235.01108768373</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,8 +2889,8 @@
         <v>2049</v>
       </c>
       <c r="B34" s="7">
-        <f>'India Data'!B85</f>
-        <v>1271991.624705418</v>
+        <f>'India Calcs'!B86</f>
+        <v>652268.48832219746</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,8 +2898,8 @@
         <v>2050</v>
       </c>
       <c r="B35" s="7">
-        <f>'India Data'!B86</f>
-        <v>1270106.8044438288</v>
+        <f>'India Calcs'!B87</f>
+        <v>651301.96555671119</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
+++ b/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\Input Data for India 2.0\bldgs\CpUDSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\bldgs\CpUDSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4BB31E-CBED-47E7-9096-66AAA17BC066}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B0DE0B-A6E1-4D88-BA64-557FF5D7A6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="158" yWindow="120" windowWidth="15660" windowHeight="9862" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="India Data" sheetId="7" r:id="rId2"/>
     <sheet name="India Calcs" sheetId="6" r:id="rId3"/>
-    <sheet name="AC DC Derate Factor" sheetId="5" r:id="rId4"/>
-    <sheet name="CpUDSC" sheetId="2" r:id="rId5"/>
+    <sheet name="Soft Cost Data" sheetId="10" r:id="rId4"/>
+    <sheet name="AC DC Derate Factor" sheetId="5" r:id="rId5"/>
+    <sheet name="CpUDSC-totalcost" sheetId="2" r:id="rId6"/>
+    <sheet name="CpUDSC-softcosts" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="INRLac">[1]Conversions!$E$113</definedName>
@@ -33,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>CpUDSC Cost per Unit Distributed Solar Capacity</t>
   </si>
@@ -269,6 +273,48 @@
   </si>
   <si>
     <t>Capital (Installation) Cost</t>
+  </si>
+  <si>
+    <t>Unit: $/MW</t>
+  </si>
+  <si>
+    <t>Distributed Solar Soft Costs</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Solar PV Type</t>
+  </si>
+  <si>
+    <t>Non-Hardware Cost %</t>
+  </si>
+  <si>
+    <t>Utility-Scale</t>
+  </si>
+  <si>
+    <t>For distributed PV on buildings, we use the average</t>
+  </si>
+  <si>
+    <t>of residential and commercial soft cost shares.</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Share of Costs that are Soft Costs</t>
+  </si>
+  <si>
+    <t>NREL</t>
+  </si>
+  <si>
+    <t>U.S. Solar Photovoltaic System Cost Benchmark: Q1 2018</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy17osti/68925.pdf</t>
+  </si>
+  <si>
+    <t>Page viii, Figure ES-2</t>
   </si>
 </sst>
 </file>
@@ -276,13 +322,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000000_);\(#,##0.000000\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000_);\(#,##0.0000\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000_);\(#,##0.000000\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000_);\(#,##0.0000\);&quot;-&quot;_);@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +413,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +444,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,9 +632,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -611,43 +677,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,12 +728,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1169,22 +1241,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.86328125" customWidth="1"/>
+    <col min="4" max="4" width="57.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -1203,7 +1278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2015</v>
       </c>
@@ -1211,7 +1286,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="34" t="s">
         <v>26</v>
       </c>
@@ -1227,12 +1302,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2015</v>
       </c>
@@ -1259,7 +1334,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
@@ -1285,111 +1360,155 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="3"/>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="3"/>
+      <c r="D19" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
+      <c r="D21" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{956761B4-B8A9-409A-AC2E-244D873F82F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E38500-76EA-4C64-BE85-14C24F8020D2}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -1397,7 +1516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1411,7 +1530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1422,7 +1541,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1433,7 +1552,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -1442,7 +1561,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" s="40">
         <f>C7*1000</f>
         <v>51000000</v>
@@ -1451,17 +1570,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11">
         <v>600</v>
       </c>
@@ -1469,7 +1588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" s="40">
         <f>C11*1000</f>
         <v>600000</v>
@@ -1478,12 +1597,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1502,21 +1621,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1652,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -1548,7 +1668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="11"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
@@ -1582,7 +1702,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -1614,7 +1734,7 @@
         <v>5.6760999999999997E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1768,7 @@
         <v>7.8380499999999986E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1800,7 @@
         <v>9.9999999999999991E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
@@ -1713,7 +1833,7 @@
         <v>-7.3328731818212622E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -1746,10 +1866,10 @@
         <v>-1.4665746363642525E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -1772,7 +1892,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1925,7 @@
         <v>45416531.971830979</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1838,7 +1958,7 @@
         <v>52871399.268720582</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -1848,7 +1968,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -1858,7 +1978,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1866,13 +1986,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +2003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -1895,7 +2015,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -1907,7 +2027,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -1918,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -1930,7 +2050,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -1943,7 +2063,7 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -1955,7 +2075,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -1967,7 +2087,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2017</v>
       </c>
@@ -1979,7 +2099,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1991,7 +2111,7 @@
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -2006,12 +2126,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -2019,7 +2139,7 @@
         <v>44.81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -2027,7 +2147,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2012</v>
       </c>
@@ -2035,7 +2155,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -2043,7 +2163,7 @@
         <v>61.89</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -2051,7 +2171,7 @@
         <v>63.33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2059,7 +2179,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -2067,7 +2187,7 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -2075,7 +2195,7 @@
         <v>63.92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2083,7 +2203,7 @@
         <v>68.657300000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>2017</v>
       </c>
@@ -2106,7 +2226,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2259,7 @@
         <v>654201.53385317</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -2149,7 +2269,7 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
@@ -2161,7 +2281,7 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -2170,7 +2290,7 @@
         <v>734628.48830477486</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -2179,7 +2299,7 @@
         <v>711120.3766790221</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2027</v>
       </c>
@@ -2188,7 +2308,7 @@
         <v>690554.6418417322</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2032</v>
       </c>
@@ -2197,7 +2317,7 @@
         <v>676891.44868887344</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2037</v>
       </c>
@@ -2206,7 +2326,7 @@
         <v>666508.4234706962</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -2215,7 +2335,7 @@
         <v>659034.14768060157</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2047</v>
       </c>
@@ -2224,15 +2344,15 @@
         <v>654201.53385317</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2017</v>
       </c>
@@ -2241,7 +2361,7 @@
         <v>734628.48830477521</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -2250,7 +2370,7 @@
         <v>729926.86597962491</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -2259,7 +2379,7 @@
         <v>725225.24365447462</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -2268,7 +2388,7 @@
         <v>720523.62132932432</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -2277,7 +2397,7 @@
         <v>715821.99900417402</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2022</v>
       </c>
@@ -2286,7 +2406,7 @@
         <v>711120.37667902373</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2023</v>
       </c>
@@ -2295,7 +2415,7 @@
         <v>707007.22971156426</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2024</v>
       </c>
@@ -2304,7 +2424,7 @@
         <v>702894.08274410665</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2025</v>
       </c>
@@ -2313,7 +2433,7 @@
         <v>698780.93577664811</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2026</v>
       </c>
@@ -2322,7 +2442,7 @@
         <v>694667.7888091905</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2027</v>
       </c>
@@ -2331,7 +2451,7 @@
         <v>690554.64184173197</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2028</v>
       </c>
@@ -2340,7 +2460,7 @@
         <v>687822.00321116019</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2029</v>
       </c>
@@ -2349,7 +2469,7 @@
         <v>685089.36458058842</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2030</v>
       </c>
@@ -2358,7 +2478,7 @@
         <v>682356.72595001757</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2031</v>
       </c>
@@ -2367,7 +2487,7 @@
         <v>679624.0873194458</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2032</v>
       </c>
@@ -2376,7 +2496,7 @@
         <v>676891.44868887402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2033</v>
       </c>
@@ -2385,7 +2505,7 @@
         <v>674814.84364523832</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2034</v>
       </c>
@@ -2394,7 +2514,7 @@
         <v>672738.23860160261</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>2035</v>
       </c>
@@ -2403,7 +2523,7 @@
         <v>670661.63355796691</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>2036</v>
       </c>
@@ -2412,7 +2532,7 @@
         <v>668585.02851433214</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>2037</v>
       </c>
@@ -2421,7 +2541,7 @@
         <v>666508.42347069643</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2038</v>
       </c>
@@ -2430,7 +2550,7 @@
         <v>665013.56831267709</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>2039</v>
       </c>
@@ -2439,7 +2559,7 @@
         <v>663518.71315465821</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>2040</v>
       </c>
@@ -2448,7 +2568,7 @@
         <v>662023.85799663933</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>2041</v>
       </c>
@@ -2457,7 +2577,7 @@
         <v>660529.00283862045</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2042</v>
       </c>
@@ -2466,7 +2586,7 @@
         <v>659034.14768060157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>2043</v>
       </c>
@@ -2475,7 +2595,7 @@
         <v>658067.6249151153</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>2044</v>
       </c>
@@ -2484,7 +2604,7 @@
         <v>657101.10214962903</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>2045</v>
       </c>
@@ -2493,7 +2613,7 @@
         <v>656134.57938414277</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>2046</v>
       </c>
@@ -2502,7 +2622,7 @@
         <v>655168.05661865626</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>2047</v>
       </c>
@@ -2511,7 +2631,7 @@
         <v>654201.53385317</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>2048</v>
       </c>
@@ -2520,7 +2640,7 @@
         <v>653235.01108768373</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>2049</v>
       </c>
@@ -2529,7 +2649,7 @@
         <v>652268.48832219746</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>2050</v>
       </c>
@@ -2544,24 +2664,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41414B4A-05A3-4E29-ABEA-617E55286957}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="46">
+        <f>AVERAGE(B4:B5)</f>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.85899999999999999</v>
       </c>
@@ -2575,28 +2774,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -2605,7 +2807,7 @@
         <v>734628.48830477521</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -2614,7 +2816,7 @@
         <v>729926.86597962491</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -2623,7 +2825,7 @@
         <v>725225.24365447462</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -2632,7 +2834,7 @@
         <v>720523.62132932432</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -2641,7 +2843,7 @@
         <v>715821.99900417402</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -2650,7 +2852,7 @@
         <v>711120.37667902373</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -2659,7 +2861,7 @@
         <v>707007.22971156426</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -2668,7 +2870,7 @@
         <v>702894.08274410665</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -2677,7 +2879,7 @@
         <v>698780.93577664811</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2026</v>
       </c>
@@ -2686,7 +2888,7 @@
         <v>694667.7888091905</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2027</v>
       </c>
@@ -2695,7 +2897,7 @@
         <v>690554.64184173197</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2028</v>
       </c>
@@ -2704,7 +2906,7 @@
         <v>687822.00321116019</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2029</v>
       </c>
@@ -2713,7 +2915,7 @@
         <v>685089.36458058842</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2030</v>
       </c>
@@ -2722,7 +2924,7 @@
         <v>682356.72595001757</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2031</v>
       </c>
@@ -2731,7 +2933,7 @@
         <v>679624.0873194458</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2032</v>
       </c>
@@ -2740,7 +2942,7 @@
         <v>676891.44868887402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2033</v>
       </c>
@@ -2749,7 +2951,7 @@
         <v>674814.84364523832</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2034</v>
       </c>
@@ -2758,7 +2960,7 @@
         <v>672738.23860160261</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2035</v>
       </c>
@@ -2767,7 +2969,7 @@
         <v>670661.63355796691</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2036</v>
       </c>
@@ -2776,7 +2978,7 @@
         <v>668585.02851433214</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2037</v>
       </c>
@@ -2785,7 +2987,7 @@
         <v>666508.42347069643</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2038</v>
       </c>
@@ -2794,7 +2996,7 @@
         <v>665013.56831267709</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2039</v>
       </c>
@@ -2803,7 +3005,7 @@
         <v>663518.71315465821</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2040</v>
       </c>
@@ -2812,7 +3014,7 @@
         <v>662023.85799663933</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2041</v>
       </c>
@@ -2821,7 +3023,7 @@
         <v>660529.00283862045</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2042</v>
       </c>
@@ -2830,7 +3032,7 @@
         <v>659034.14768060157</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2043</v>
       </c>
@@ -2839,7 +3041,7 @@
         <v>658067.6249151153</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2044</v>
       </c>
@@ -2848,7 +3050,7 @@
         <v>657101.10214962903</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2045</v>
       </c>
@@ -2857,7 +3059,7 @@
         <v>656134.57938414277</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2046</v>
       </c>
@@ -2866,7 +3068,7 @@
         <v>655168.05661865626</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2047</v>
       </c>
@@ -2875,7 +3077,7 @@
         <v>654201.53385317</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2048</v>
       </c>
@@ -2884,7 +3086,7 @@
         <v>653235.01108768373</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2049</v>
       </c>
@@ -2893,13 +3095,349 @@
         <v>652268.48832219746</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2050</v>
       </c>
       <c r="B35" s="7">
         <f>'India Calcs'!B87</f>
         <v>651301.96555671119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5536DBD-63B3-4DA0-B567-40F43A54A945}">
+  <sheetPr codeName="Sheet7">
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="43">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <f>'CpUDSC-totalcost'!B2*'Soft Cost Data'!$B$10</f>
+        <v>437103.95054134121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="43">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <f>'CpUDSC-totalcost'!B3*'Soft Cost Data'!$B$10</f>
+        <v>434306.4852578768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <f>'CpUDSC-totalcost'!B4*'Soft Cost Data'!$B$10</f>
+        <v>431509.0199744124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <f>'CpUDSC-totalcost'!B5*'Soft Cost Data'!$B$10</f>
+        <v>428711.55469094793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <f>'CpUDSC-totalcost'!B6*'Soft Cost Data'!$B$10</f>
+        <v>425914.08940748352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <f>'CpUDSC-totalcost'!B7*'Soft Cost Data'!$B$10</f>
+        <v>423116.62412401912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8">
+        <f>'CpUDSC-totalcost'!B8*'Soft Cost Data'!$B$10</f>
+        <v>420669.3016783807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9">
+        <f>'CpUDSC-totalcost'!B9*'Soft Cost Data'!$B$10</f>
+        <v>418221.97923274344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10">
+        <f>'CpUDSC-totalcost'!B10*'Soft Cost Data'!$B$10</f>
+        <v>415774.6567871056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2026</v>
+      </c>
+      <c r="B11">
+        <f>'CpUDSC-totalcost'!B11*'Soft Cost Data'!$B$10</f>
+        <v>413327.33434146835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2027</v>
+      </c>
+      <c r="B12">
+        <f>'CpUDSC-totalcost'!B12*'Soft Cost Data'!$B$10</f>
+        <v>410880.01189583051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2028</v>
+      </c>
+      <c r="B13">
+        <f>'CpUDSC-totalcost'!B13*'Soft Cost Data'!$B$10</f>
+        <v>409254.0919106403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2029</v>
+      </c>
+      <c r="B14">
+        <f>'CpUDSC-totalcost'!B14*'Soft Cost Data'!$B$10</f>
+        <v>407628.17192545009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2030</v>
+      </c>
+      <c r="B15">
+        <f>'CpUDSC-totalcost'!B15*'Soft Cost Data'!$B$10</f>
+        <v>406002.25194026041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2031</v>
+      </c>
+      <c r="B16">
+        <f>'CpUDSC-totalcost'!B16*'Soft Cost Data'!$B$10</f>
+        <v>404376.33195507026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2032</v>
+      </c>
+      <c r="B17">
+        <f>'CpUDSC-totalcost'!B17*'Soft Cost Data'!$B$10</f>
+        <v>402750.41196988005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2033</v>
+      </c>
+      <c r="B18">
+        <f>'CpUDSC-totalcost'!B18*'Soft Cost Data'!$B$10</f>
+        <v>401514.83196891675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2034</v>
+      </c>
+      <c r="B19">
+        <f>'CpUDSC-totalcost'!B19*'Soft Cost Data'!$B$10</f>
+        <v>400279.25196795352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2035</v>
+      </c>
+      <c r="B20">
+        <f>'CpUDSC-totalcost'!B20*'Soft Cost Data'!$B$10</f>
+        <v>399043.67196699028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2036</v>
+      </c>
+      <c r="B21">
+        <f>'CpUDSC-totalcost'!B21*'Soft Cost Data'!$B$10</f>
+        <v>397808.09196602763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2037</v>
+      </c>
+      <c r="B22">
+        <f>'CpUDSC-totalcost'!B22*'Soft Cost Data'!$B$10</f>
+        <v>396572.51196506433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2038</v>
+      </c>
+      <c r="B23">
+        <f>'CpUDSC-totalcost'!B23*'Soft Cost Data'!$B$10</f>
+        <v>395683.07314604282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2039</v>
+      </c>
+      <c r="B24">
+        <f>'CpUDSC-totalcost'!B24*'Soft Cost Data'!$B$10</f>
+        <v>394793.6343270216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2040</v>
+      </c>
+      <c r="B25">
+        <f>'CpUDSC-totalcost'!B25*'Soft Cost Data'!$B$10</f>
+        <v>393904.19550800038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2041</v>
+      </c>
+      <c r="B26">
+        <f>'CpUDSC-totalcost'!B26*'Soft Cost Data'!$B$10</f>
+        <v>393014.75668897916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2042</v>
+      </c>
+      <c r="B27">
+        <f>'CpUDSC-totalcost'!B27*'Soft Cost Data'!$B$10</f>
+        <v>392125.31786995794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2043</v>
+      </c>
+      <c r="B28">
+        <f>'CpUDSC-totalcost'!B28*'Soft Cost Data'!$B$10</f>
+        <v>391550.23682449356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2044</v>
+      </c>
+      <c r="B29">
+        <f>'CpUDSC-totalcost'!B29*'Soft Cost Data'!$B$10</f>
+        <v>390975.15577902924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2045</v>
+      </c>
+      <c r="B30">
+        <f>'CpUDSC-totalcost'!B30*'Soft Cost Data'!$B$10</f>
+        <v>390400.07473356492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2046</v>
+      </c>
+      <c r="B31">
+        <f>'CpUDSC-totalcost'!B31*'Soft Cost Data'!$B$10</f>
+        <v>389824.99368810048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2047</v>
+      </c>
+      <c r="B32">
+        <f>'CpUDSC-totalcost'!B32*'Soft Cost Data'!$B$10</f>
+        <v>389249.9126426361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2048</v>
+      </c>
+      <c r="B33">
+        <f>'CpUDSC-totalcost'!B33*'Soft Cost Data'!$B$10</f>
+        <v>388674.83159717178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2049</v>
+      </c>
+      <c r="B34">
+        <f>'CpUDSC-totalcost'!B34*'Soft Cost Data'!$B$10</f>
+        <v>388099.75055170746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2050</v>
+      </c>
+      <c r="B35">
+        <f>'CpUDSC-totalcost'!B35*'Soft Cost Data'!$B$10</f>
+        <v>387524.66950624314</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
+++ b/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\bldgs\CpUDSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Downloads\eps-india-3.1.3.4 - LG\eps-india-3.1.3.4\InputData - LG\bldgs\CpUDSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B0DE0B-A6E1-4D88-BA64-557FF5D7A6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27BB1B78-CE79-4EDA-8439-1C0EB44FCEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="158" yWindow="120" windowWidth="15660" windowHeight="9862" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -322,11 +322,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000_);\(#,##0.000000\);&quot;-&quot;_);@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000_);\(#,##0.0000\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000_);\(#,##0.000000\);&quot;-&quot;_);@"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000_);\(#,##0.0000\);&quot;-&quot;_);@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -632,9 +632,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -677,13 +677,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,25 +698,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,7 +722,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -740,6 +734,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1244,22 +1241,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="56.86328125" customWidth="1"/>
-    <col min="4" max="4" width="57.265625" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" customWidth="1"/>
+    <col min="4" max="4" width="57.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2015</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1294,20 +1291,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2015</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1343,16 +1340,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
@@ -1360,119 +1357,119 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="D17" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="D18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="D19" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="D20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="D22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -1496,19 +1493,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1552,7 +1549,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -1561,8 +1558,8 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C8" s="40">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="38">
         <f>C7*1000</f>
         <v>51000000</v>
       </c>
@@ -1570,17 +1567,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>600</v>
       </c>
@@ -1588,8 +1585,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C12" s="40">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="38">
         <f>C11*1000</f>
         <v>600000</v>
       </c>
@@ -1597,12 +1594,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1624,19 +1621,19 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
@@ -1652,7 +1649,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -1668,7 +1665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
@@ -1702,174 +1699,174 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="25"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="26">
+      <c r="E4" s="18">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="18">
         <v>8.0000000000000013E-6</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="18">
         <v>7.0399999999999995E-6</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="18">
         <v>6.5471999999999998E-6</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="18">
         <v>6.2198000000000001E-6</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="18">
         <v>5.9709999999999992E-6</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="18">
         <v>5.7918999999999996E-6</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="18">
         <v>5.6760999999999997E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>0</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="26">
+      <c r="E5" s="18">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="18">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="18">
         <v>8.5199999999999997E-6</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="18">
         <v>8.2735999999999999E-6</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="18">
         <v>8.1099000000000001E-6</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="18">
         <v>7.9855E-6</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="18">
         <v>7.8959500000000002E-6</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="18">
         <v>7.8380499999999986E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="45">
         <v>9.9999999999999991E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="33">
-        <f>(F5-E5)/E5</f>
-        <v>-9.9999999999999895E-2</v>
-      </c>
-      <c r="G7" s="33">
-        <f t="shared" ref="G7:L7" si="0">(G5-F5)/F5</f>
-        <v>-5.3333333333333385E-2</v>
-      </c>
-      <c r="H7" s="33">
-        <f t="shared" si="0"/>
-        <v>-2.8920187793427216E-2</v>
-      </c>
-      <c r="I7" s="33">
-        <f t="shared" si="0"/>
-        <v>-1.9785824792109819E-2</v>
-      </c>
-      <c r="J7" s="33">
-        <f t="shared" si="0"/>
-        <v>-1.533927668651895E-2</v>
-      </c>
-      <c r="K7" s="33">
-        <f t="shared" si="0"/>
-        <v>-1.1214075511865236E-2</v>
-      </c>
-      <c r="L7" s="33">
-        <f t="shared" si="0"/>
-        <v>-7.3328731818212622E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F7" s="31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="39">
         <f>F7/5</f>
-        <v>-1.999999999999998E-2</v>
-      </c>
-      <c r="G8" s="41">
-        <f t="shared" ref="G8:L8" si="1">G7/5</f>
-        <v>-1.0666666666666677E-2</v>
-      </c>
-      <c r="H8" s="41">
-        <f t="shared" si="1"/>
-        <v>-5.7840375586854431E-3</v>
-      </c>
-      <c r="I8" s="41">
-        <f t="shared" si="1"/>
-        <v>-3.9571649584219642E-3</v>
-      </c>
-      <c r="J8" s="41">
-        <f t="shared" si="1"/>
-        <v>-3.0678553373037899E-3</v>
-      </c>
-      <c r="K8" s="41">
-        <f t="shared" si="1"/>
-        <v>-2.2428151023730471E-3</v>
-      </c>
-      <c r="L8" s="41">
-        <f t="shared" si="1"/>
-        <v>-1.4665746363642525E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="32"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" ref="G8:L8" si="0">G7/5</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -1892,93 +1889,93 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <f>'India Data'!C8</f>
         <v>51000000</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="31">
         <f>B12*(1+3*G8)</f>
-        <v>49368000</v>
-      </c>
-      <c r="D12" s="33">
+        <v>51000000</v>
+      </c>
+      <c r="D12" s="31">
         <f>C12*(1+H7)</f>
-        <v>47940268.169014089</v>
-      </c>
-      <c r="E12" s="33">
+        <v>51000000</v>
+      </c>
+      <c r="E12" s="31">
         <f>D12*(1+I7)</f>
-        <v>46991730.422535218</v>
-      </c>
-      <c r="F12" s="33">
+        <v>51000000</v>
+      </c>
+      <c r="F12" s="31">
         <f>E12*(1+J7)</f>
-        <v>46270911.26760564</v>
-      </c>
-      <c r="G12" s="33">
+        <v>51000000</v>
+      </c>
+      <c r="G12" s="31">
         <f>F12*(1+K7)</f>
-        <v>45752025.774647892</v>
-      </c>
-      <c r="H12" s="33">
+        <v>51000000</v>
+      </c>
+      <c r="H12" s="31">
         <f>G12*(1+L7)</f>
-        <v>45416531.971830979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>51000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="31">
         <f>B12/'AC DC Derate Factor'!$A$3</f>
         <v>59371362.048894063</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <f>C12/'AC DC Derate Factor'!$A$3</f>
-        <v>57471478.463329457</v>
-      </c>
-      <c r="D13" s="33">
+        <v>59371362.048894063</v>
+      </c>
+      <c r="D13" s="31">
         <f>D12/'AC DC Derate Factor'!$A$3</f>
-        <v>55809392.513404064</v>
-      </c>
-      <c r="E13" s="33">
+        <v>59371362.048894063</v>
+      </c>
+      <c r="E13" s="31">
         <f>E12/'AC DC Derate Factor'!$A$3</f>
-        <v>54705157.651379764</v>
-      </c>
-      <c r="F13" s="33">
+        <v>59371362.048894063</v>
+      </c>
+      <c r="F13" s="31">
         <f>F12/'AC DC Derate Factor'!$A$3</f>
-        <v>53866020.101985611</v>
-      </c>
-      <c r="G13" s="33">
+        <v>59371362.048894063</v>
+      </c>
+      <c r="G13" s="31">
         <f>G12/'AC DC Derate Factor'!$A$3</f>
-        <v>53261962.485038288</v>
-      </c>
-      <c r="H13" s="33">
+        <v>59371362.048894063</v>
+      </c>
+      <c r="H13" s="31">
         <f>H12/'AC DC Derate Factor'!$A$3</f>
-        <v>52871399.268720582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>59371362.048894063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1986,152 +1983,152 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="35" t="s">
+      <c r="C17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2010</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="34">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="35">
         <f>C20/(1+B20)</f>
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2011</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="34">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="35">
         <f>C21/(1+B21)</f>
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2012</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="34">
         <v>0.11169999999999999</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2013</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="34">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="35">
         <f>C21*(1+B22)</f>
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2014</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="34">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="C23" s="37">
-        <f t="shared" ref="C23:C28" si="2">C22*(1+B23)</f>
+      <c r="C23" s="35">
+        <f t="shared" ref="C23:C28" si="1">C22*(1+B23)</f>
         <v>1.1552501799999999</v>
       </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2015</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="34">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="C24" s="37">
-        <f t="shared" si="2"/>
+      <c r="C24" s="35">
+        <f t="shared" si="1"/>
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2016</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="34">
         <v>2.23E-2</v>
       </c>
-      <c r="C25" s="37">
-        <f t="shared" si="2"/>
+      <c r="C25" s="35">
+        <f t="shared" si="1"/>
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2017</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="36">
         <v>0.04</v>
       </c>
-      <c r="C26" s="37">
-        <f t="shared" si="2"/>
+      <c r="C26" s="35">
+        <f t="shared" si="1"/>
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2018</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="34">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="C27" s="37">
-        <f t="shared" si="2"/>
+      <c r="C27" s="35">
+        <f t="shared" si="1"/>
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2019</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="34">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="C28" s="37">
-        <f t="shared" si="2"/>
+      <c r="C28" s="35">
+        <f t="shared" si="1"/>
         <v>1.4755927250609084</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>44.81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2012</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -2163,7 +2160,7 @@
         <v>61.89</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>63.33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2179,7 +2176,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -2195,15 +2192,15 @@
         <v>63.92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2018</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="40">
         <v>68.657300000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>2017</v>
       </c>
@@ -2226,436 +2223,436 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="31">
         <f>B13/$C$28/$B$32</f>
         <v>734628.48830477486</v>
       </c>
-      <c r="C40" s="33">
-        <f t="shared" ref="C40:H40" si="3">C13/$C$28/$B$32</f>
-        <v>711120.3766790221</v>
-      </c>
-      <c r="D40" s="33">
-        <f t="shared" si="3"/>
-        <v>690554.6418417322</v>
-      </c>
-      <c r="E40" s="33">
-        <f t="shared" si="3"/>
-        <v>676891.44868887344</v>
-      </c>
-      <c r="F40" s="33">
-        <f t="shared" si="3"/>
-        <v>666508.4234706962</v>
-      </c>
-      <c r="G40" s="33">
-        <f t="shared" si="3"/>
-        <v>659034.14768060157</v>
-      </c>
-      <c r="H40" s="33">
-        <f t="shared" si="3"/>
-        <v>654201.53385317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C40" s="31">
+        <f t="shared" ref="C40:H40" si="2">C13/$C$28/$B$32</f>
+        <v>734628.48830477486</v>
+      </c>
+      <c r="D40" s="31">
+        <f t="shared" si="2"/>
+        <v>734628.48830477486</v>
+      </c>
+      <c r="E40" s="31">
+        <f t="shared" si="2"/>
+        <v>734628.48830477486</v>
+      </c>
+      <c r="F40" s="31">
+        <f t="shared" si="2"/>
+        <v>734628.48830477486</v>
+      </c>
+      <c r="G40" s="31">
+        <f t="shared" si="2"/>
+        <v>734628.48830477486</v>
+      </c>
+      <c r="H40" s="31">
+        <f t="shared" si="2"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2017</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="31">
         <f>B40</f>
         <v>734628.48830477486</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2022</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="31">
         <f>C40</f>
-        <v>711120.3766790221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2027</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="31">
         <f>D40</f>
-        <v>690554.6418417322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2032</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="31">
         <f>E40</f>
-        <v>676891.44868887344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2037</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="31">
         <f>F40</f>
-        <v>666508.4234706962</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2042</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="31">
         <f>G40</f>
-        <v>659034.14768060157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2047</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="31">
         <f>H40</f>
-        <v>654201.53385317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2017</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="31">
         <f>TREND(B$44:B$45,$A$44:$A$45,$A54)</f>
-        <v>734628.48830477521</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2018</v>
       </c>
-      <c r="B55" s="33">
-        <f t="shared" ref="B55:B59" si="4">TREND(B$44:B$45,$A$44:$A$45,$A55)</f>
-        <v>729926.86597962491</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="31">
+        <f t="shared" ref="B55:B59" si="3">TREND(B$44:B$45,$A$44:$A$45,$A55)</f>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2019</v>
       </c>
-      <c r="B56" s="33">
-        <f t="shared" si="4"/>
-        <v>725225.24365447462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B56" s="31">
+        <f t="shared" si="3"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2020</v>
       </c>
-      <c r="B57" s="33">
-        <f t="shared" si="4"/>
-        <v>720523.62132932432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B57" s="31">
+        <f t="shared" si="3"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2021</v>
       </c>
-      <c r="B58" s="33">
-        <f t="shared" si="4"/>
-        <v>715821.99900417402</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B58" s="31">
+        <f t="shared" si="3"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2022</v>
       </c>
-      <c r="B59" s="33">
-        <f t="shared" si="4"/>
-        <v>711120.37667902373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B59" s="31">
+        <f t="shared" si="3"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2023</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="31">
         <f>TREND(B$45:B$46,$A$45:$A$46,$A60)</f>
-        <v>707007.22971156426</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2024</v>
       </c>
-      <c r="B61" s="33">
-        <f t="shared" ref="B61:B64" si="5">TREND(B$45:B$46,$A$45:$A$46,$A61)</f>
-        <v>702894.08274410665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B61" s="31">
+        <f t="shared" ref="B61:B64" si="4">TREND(B$45:B$46,$A$45:$A$46,$A61)</f>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2025</v>
       </c>
-      <c r="B62" s="33">
-        <f t="shared" si="5"/>
-        <v>698780.93577664811</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B62" s="31">
+        <f t="shared" si="4"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2026</v>
       </c>
-      <c r="B63" s="33">
-        <f t="shared" si="5"/>
-        <v>694667.7888091905</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B63" s="31">
+        <f t="shared" si="4"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2027</v>
       </c>
-      <c r="B64" s="33">
-        <f t="shared" si="5"/>
-        <v>690554.64184173197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B64" s="31">
+        <f t="shared" si="4"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2028</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="31">
         <f>TREND(B$46:B$47,$A$46:$A$47,$A65)</f>
-        <v>687822.00321116019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2029</v>
       </c>
-      <c r="B66" s="33">
-        <f t="shared" ref="B66:B69" si="6">TREND(B$46:B$47,$A$46:$A$47,$A66)</f>
-        <v>685089.36458058842</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B66" s="31">
+        <f t="shared" ref="B66:B69" si="5">TREND(B$46:B$47,$A$46:$A$47,$A66)</f>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2030</v>
       </c>
-      <c r="B67" s="33">
-        <f t="shared" si="6"/>
-        <v>682356.72595001757</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B67" s="31">
+        <f t="shared" si="5"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2031</v>
       </c>
-      <c r="B68" s="33">
-        <f t="shared" si="6"/>
-        <v>679624.0873194458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B68" s="31">
+        <f t="shared" si="5"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2032</v>
       </c>
-      <c r="B69" s="33">
-        <f t="shared" si="6"/>
-        <v>676891.44868887402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B69" s="31">
+        <f t="shared" si="5"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2033</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="31">
         <f>TREND(B$47:B$48,$A$47:$A$48,$A70)</f>
-        <v>674814.84364523832</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2034</v>
       </c>
-      <c r="B71" s="33">
-        <f t="shared" ref="B71:B74" si="7">TREND(B$47:B$48,$A$47:$A$48,$A71)</f>
-        <v>672738.23860160261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B71" s="31">
+        <f t="shared" ref="B71:B74" si="6">TREND(B$47:B$48,$A$47:$A$48,$A71)</f>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2035</v>
       </c>
-      <c r="B72" s="33">
-        <f t="shared" si="7"/>
-        <v>670661.63355796691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B72" s="31">
+        <f t="shared" si="6"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2036</v>
       </c>
-      <c r="B73" s="33">
-        <f t="shared" si="7"/>
-        <v>668585.02851433214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B73" s="31">
+        <f t="shared" si="6"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2037</v>
       </c>
-      <c r="B74" s="33">
-        <f t="shared" si="7"/>
-        <v>666508.42347069643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B74" s="31">
+        <f t="shared" si="6"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2038</v>
       </c>
-      <c r="B75" s="33">
+      <c r="B75" s="31">
         <f>TREND(B$48:B$49,$A$48:$A$49,$A75)</f>
-        <v>665013.56831267709</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2039</v>
       </c>
-      <c r="B76" s="33">
-        <f t="shared" ref="B76:B79" si="8">TREND(B$48:B$49,$A$48:$A$49,$A76)</f>
-        <v>663518.71315465821</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B76" s="31">
+        <f t="shared" ref="B76:B79" si="7">TREND(B$48:B$49,$A$48:$A$49,$A76)</f>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2040</v>
       </c>
-      <c r="B77" s="33">
-        <f t="shared" si="8"/>
-        <v>662023.85799663933</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B77" s="31">
+        <f t="shared" si="7"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2041</v>
       </c>
-      <c r="B78" s="33">
-        <f t="shared" si="8"/>
-        <v>660529.00283862045</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B78" s="31">
+        <f t="shared" si="7"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2042</v>
       </c>
-      <c r="B79" s="33">
-        <f t="shared" si="8"/>
-        <v>659034.14768060157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B79" s="31">
+        <f t="shared" si="7"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2043</v>
       </c>
-      <c r="B80" s="33">
+      <c r="B80" s="31">
         <f>TREND(B$49:B$50,$A$49:$A$50,$A80)</f>
-        <v>658067.6249151153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2044</v>
       </c>
-      <c r="B81" s="33">
-        <f t="shared" ref="B81:B87" si="9">TREND(B$49:B$50,$A$49:$A$50,$A81)</f>
-        <v>657101.10214962903</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B81" s="31">
+        <f t="shared" ref="B81:B87" si="8">TREND(B$49:B$50,$A$49:$A$50,$A81)</f>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2045</v>
       </c>
-      <c r="B82" s="33">
-        <f t="shared" si="9"/>
-        <v>656134.57938414277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B82" s="31">
+        <f t="shared" si="8"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2046</v>
       </c>
-      <c r="B83" s="33">
-        <f t="shared" si="9"/>
-        <v>655168.05661865626</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B83" s="31">
+        <f t="shared" si="8"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2047</v>
       </c>
-      <c r="B84" s="33">
-        <f t="shared" si="9"/>
-        <v>654201.53385317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B84" s="31">
+        <f t="shared" si="8"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2048</v>
       </c>
-      <c r="B85" s="33">
-        <f t="shared" si="9"/>
-        <v>653235.01108768373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B85" s="31">
+        <f t="shared" si="8"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2049</v>
       </c>
-      <c r="B86" s="33">
-        <f t="shared" si="9"/>
-        <v>652268.48832219746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B86" s="31">
+        <f t="shared" si="8"/>
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2050</v>
       </c>
-      <c r="B87" s="33">
-        <f t="shared" si="9"/>
-        <v>651301.96555671119</v>
+      <c r="B87" s="31">
+        <f t="shared" si="8"/>
+        <v>734628.48830477486</v>
       </c>
     </row>
   </sheetData>
@@ -2672,66 +2669,66 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="36">
         <v>0.63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="36">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="44">
         <f>AVERAGE(B4:B5)</f>
         <v>0.59499999999999997</v>
       </c>
@@ -2748,19 +2745,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.85899999999999999</v>
       </c>
@@ -2785,323 +2782,323 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2017</v>
       </c>
       <c r="B2" s="7">
         <f>'India Calcs'!B54</f>
-        <v>734628.48830477521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
       <c r="B3" s="7">
         <f>'India Calcs'!B55</f>
-        <v>729926.86597962491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
       <c r="B4" s="7">
         <f>'India Calcs'!B56</f>
-        <v>725225.24365447462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
       <c r="B5" s="7">
         <f>'India Calcs'!B57</f>
-        <v>720523.62132932432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2021</v>
       </c>
       <c r="B6" s="7">
         <f>'India Calcs'!B58</f>
-        <v>715821.99900417402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2022</v>
       </c>
       <c r="B7" s="7">
         <f>'India Calcs'!B59</f>
-        <v>711120.37667902373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2023</v>
       </c>
       <c r="B8" s="7">
         <f>'India Calcs'!B60</f>
-        <v>707007.22971156426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2024</v>
       </c>
       <c r="B9" s="7">
         <f>'India Calcs'!B61</f>
-        <v>702894.08274410665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2025</v>
       </c>
       <c r="B10" s="7">
         <f>'India Calcs'!B62</f>
-        <v>698780.93577664811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2026</v>
       </c>
       <c r="B11" s="7">
         <f>'India Calcs'!B63</f>
-        <v>694667.7888091905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2027</v>
       </c>
       <c r="B12" s="7">
         <f>'India Calcs'!B64</f>
-        <v>690554.64184173197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2028</v>
       </c>
       <c r="B13" s="7">
         <f>'India Calcs'!B65</f>
-        <v>687822.00321116019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2029</v>
       </c>
       <c r="B14" s="7">
         <f>'India Calcs'!B66</f>
-        <v>685089.36458058842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2030</v>
       </c>
       <c r="B15" s="7">
         <f>'India Calcs'!B67</f>
-        <v>682356.72595001757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2031</v>
       </c>
       <c r="B16" s="7">
         <f>'India Calcs'!B68</f>
-        <v>679624.0873194458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2032</v>
       </c>
       <c r="B17" s="7">
         <f>'India Calcs'!B69</f>
-        <v>676891.44868887402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2033</v>
       </c>
       <c r="B18" s="7">
         <f>'India Calcs'!B70</f>
-        <v>674814.84364523832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2034</v>
       </c>
       <c r="B19" s="7">
         <f>'India Calcs'!B71</f>
-        <v>672738.23860160261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2035</v>
       </c>
       <c r="B20" s="7">
         <f>'India Calcs'!B72</f>
-        <v>670661.63355796691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2036</v>
       </c>
       <c r="B21" s="7">
         <f>'India Calcs'!B73</f>
-        <v>668585.02851433214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2037</v>
       </c>
       <c r="B22" s="7">
         <f>'India Calcs'!B74</f>
-        <v>666508.42347069643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2038</v>
       </c>
       <c r="B23" s="7">
         <f>'India Calcs'!B75</f>
-        <v>665013.56831267709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2039</v>
       </c>
       <c r="B24" s="7">
         <f>'India Calcs'!B76</f>
-        <v>663518.71315465821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2040</v>
       </c>
       <c r="B25" s="7">
         <f>'India Calcs'!B77</f>
-        <v>662023.85799663933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2041</v>
       </c>
       <c r="B26" s="7">
         <f>'India Calcs'!B78</f>
-        <v>660529.00283862045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2042</v>
       </c>
       <c r="B27" s="7">
         <f>'India Calcs'!B79</f>
-        <v>659034.14768060157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2043</v>
       </c>
       <c r="B28" s="7">
         <f>'India Calcs'!B80</f>
-        <v>658067.6249151153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2044</v>
       </c>
       <c r="B29" s="7">
         <f>'India Calcs'!B81</f>
-        <v>657101.10214962903</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2045</v>
       </c>
       <c r="B30" s="7">
         <f>'India Calcs'!B82</f>
-        <v>656134.57938414277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2046</v>
       </c>
       <c r="B31" s="7">
         <f>'India Calcs'!B83</f>
-        <v>655168.05661865626</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2047</v>
       </c>
       <c r="B32" s="7">
         <f>'India Calcs'!B84</f>
-        <v>654201.53385317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2048</v>
       </c>
       <c r="B33" s="7">
         <f>'India Calcs'!B85</f>
-        <v>653235.01108768373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2049</v>
       </c>
       <c r="B34" s="7">
         <f>'India Calcs'!B86</f>
-        <v>652268.48832219746</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>734628.48830477486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2050</v>
       </c>
       <c r="B35" s="7">
         <f>'India Calcs'!B87</f>
-        <v>651301.96555671119</v>
+        <v>734628.48830477486</v>
       </c>
     </row>
   </sheetData>
@@ -3116,328 +3113,328 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="43">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="41">
         <v>2017</v>
       </c>
       <c r="B2">
         <f>'CpUDSC-totalcost'!B2*'Soft Cost Data'!$B$10</f>
-        <v>437103.95054134121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="43">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="41">
         <v>2018</v>
       </c>
       <c r="B3">
         <f>'CpUDSC-totalcost'!B3*'Soft Cost Data'!$B$10</f>
-        <v>434306.4852578768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
       <c r="B4">
         <f>'CpUDSC-totalcost'!B4*'Soft Cost Data'!$B$10</f>
-        <v>431509.0199744124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
       <c r="B5">
         <f>'CpUDSC-totalcost'!B5*'Soft Cost Data'!$B$10</f>
-        <v>428711.55469094793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2021</v>
       </c>
       <c r="B6">
         <f>'CpUDSC-totalcost'!B6*'Soft Cost Data'!$B$10</f>
-        <v>425914.08940748352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2022</v>
       </c>
       <c r="B7">
         <f>'CpUDSC-totalcost'!B7*'Soft Cost Data'!$B$10</f>
-        <v>423116.62412401912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2023</v>
       </c>
       <c r="B8">
         <f>'CpUDSC-totalcost'!B8*'Soft Cost Data'!$B$10</f>
-        <v>420669.3016783807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2024</v>
       </c>
       <c r="B9">
         <f>'CpUDSC-totalcost'!B9*'Soft Cost Data'!$B$10</f>
-        <v>418221.97923274344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2025</v>
       </c>
       <c r="B10">
         <f>'CpUDSC-totalcost'!B10*'Soft Cost Data'!$B$10</f>
-        <v>415774.6567871056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2026</v>
       </c>
       <c r="B11">
         <f>'CpUDSC-totalcost'!B11*'Soft Cost Data'!$B$10</f>
-        <v>413327.33434146835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2027</v>
       </c>
       <c r="B12">
         <f>'CpUDSC-totalcost'!B12*'Soft Cost Data'!$B$10</f>
-        <v>410880.01189583051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2028</v>
       </c>
       <c r="B13">
         <f>'CpUDSC-totalcost'!B13*'Soft Cost Data'!$B$10</f>
-        <v>409254.0919106403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2029</v>
       </c>
       <c r="B14">
         <f>'CpUDSC-totalcost'!B14*'Soft Cost Data'!$B$10</f>
-        <v>407628.17192545009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2030</v>
       </c>
       <c r="B15">
         <f>'CpUDSC-totalcost'!B15*'Soft Cost Data'!$B$10</f>
-        <v>406002.25194026041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2031</v>
       </c>
       <c r="B16">
         <f>'CpUDSC-totalcost'!B16*'Soft Cost Data'!$B$10</f>
-        <v>404376.33195507026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2032</v>
       </c>
       <c r="B17">
         <f>'CpUDSC-totalcost'!B17*'Soft Cost Data'!$B$10</f>
-        <v>402750.41196988005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2033</v>
       </c>
       <c r="B18">
         <f>'CpUDSC-totalcost'!B18*'Soft Cost Data'!$B$10</f>
-        <v>401514.83196891675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2034</v>
       </c>
       <c r="B19">
         <f>'CpUDSC-totalcost'!B19*'Soft Cost Data'!$B$10</f>
-        <v>400279.25196795352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2035</v>
       </c>
       <c r="B20">
         <f>'CpUDSC-totalcost'!B20*'Soft Cost Data'!$B$10</f>
-        <v>399043.67196699028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2036</v>
       </c>
       <c r="B21">
         <f>'CpUDSC-totalcost'!B21*'Soft Cost Data'!$B$10</f>
-        <v>397808.09196602763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2037</v>
       </c>
       <c r="B22">
         <f>'CpUDSC-totalcost'!B22*'Soft Cost Data'!$B$10</f>
-        <v>396572.51196506433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2038</v>
       </c>
       <c r="B23">
         <f>'CpUDSC-totalcost'!B23*'Soft Cost Data'!$B$10</f>
-        <v>395683.07314604282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2039</v>
       </c>
       <c r="B24">
         <f>'CpUDSC-totalcost'!B24*'Soft Cost Data'!$B$10</f>
-        <v>394793.6343270216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2040</v>
       </c>
       <c r="B25">
         <f>'CpUDSC-totalcost'!B25*'Soft Cost Data'!$B$10</f>
-        <v>393904.19550800038</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2041</v>
       </c>
       <c r="B26">
         <f>'CpUDSC-totalcost'!B26*'Soft Cost Data'!$B$10</f>
-        <v>393014.75668897916</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2042</v>
       </c>
       <c r="B27">
         <f>'CpUDSC-totalcost'!B27*'Soft Cost Data'!$B$10</f>
-        <v>392125.31786995794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2043</v>
       </c>
       <c r="B28">
         <f>'CpUDSC-totalcost'!B28*'Soft Cost Data'!$B$10</f>
-        <v>391550.23682449356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2044</v>
       </c>
       <c r="B29">
         <f>'CpUDSC-totalcost'!B29*'Soft Cost Data'!$B$10</f>
-        <v>390975.15577902924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2045</v>
       </c>
       <c r="B30">
         <f>'CpUDSC-totalcost'!B30*'Soft Cost Data'!$B$10</f>
-        <v>390400.07473356492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2046</v>
       </c>
       <c r="B31">
         <f>'CpUDSC-totalcost'!B31*'Soft Cost Data'!$B$10</f>
-        <v>389824.99368810048</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2047</v>
       </c>
       <c r="B32">
         <f>'CpUDSC-totalcost'!B32*'Soft Cost Data'!$B$10</f>
-        <v>389249.9126426361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2048</v>
       </c>
       <c r="B33">
         <f>'CpUDSC-totalcost'!B33*'Soft Cost Data'!$B$10</f>
-        <v>388674.83159717178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2049</v>
       </c>
       <c r="B34">
         <f>'CpUDSC-totalcost'!B34*'Soft Cost Data'!$B$10</f>
-        <v>388099.75055170746</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>437103.95054134104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2050</v>
       </c>
       <c r="B35">
         <f>'CpUDSC-totalcost'!B35*'Soft Cost Data'!$B$10</f>
-        <v>387524.66950624314</v>
+        <v>437103.95054134104</v>
       </c>
     </row>
   </sheetData>
